--- a/server/static/tables/labor_productivity.xlsx
+++ b/server/static/tables/labor_productivity.xlsx
@@ -1,118 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411B9338-2491-4E90-8558-48E38954040F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>Показатели</t>
-  </si>
-  <si>
-    <t>г/г %</t>
-  </si>
-  <si>
-    <t>г/г (%)</t>
-  </si>
-  <si>
-    <t>г/г  (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Производительность труда тыс. тенге</t>
-  </si>
-  <si>
-    <t>Производство товаров</t>
-  </si>
-  <si>
-    <t>Сельское, лесное и рыбное хозяйство</t>
-  </si>
-  <si>
-    <t>Промышленность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Горнодобывающая промышленность </t>
-  </si>
-  <si>
-    <t>Электроэнергия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Водоснабжение </t>
-  </si>
-  <si>
-    <t>Строительство</t>
-  </si>
-  <si>
-    <t>Производство услуг</t>
-  </si>
-  <si>
-    <t>Оптовая и розничная торговля</t>
-  </si>
-  <si>
-    <t>Транспорт и складирование</t>
-  </si>
-  <si>
-    <t>Предоставление услуг по проживанию и питанию</t>
-  </si>
-  <si>
-    <t>Информация и связь</t>
-  </si>
-  <si>
-    <t>Финансовая и страховая деятельность</t>
-  </si>
-  <si>
-    <t>Операции с недвижимым имуществом</t>
-  </si>
-  <si>
-    <t>Деятельность в области административного и вспомогательного обслуживания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Государственное управление и оборона; </t>
-  </si>
-  <si>
-    <t>Образование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Здравоохранение </t>
-  </si>
-  <si>
-    <t>Искусство, развлечения и отдых</t>
-  </si>
-  <si>
-    <t>Предоставление прочих видов услуг</t>
-  </si>
-  <si>
-    <t>Обрабатывающая промышленность</t>
-  </si>
-  <si>
-    <t>Профессиональная, научная и техническая деятельность</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -139,26 +64,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -173,44 +86,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -240,12 +153,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -284,857 +197,930 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Показатели</v>
+      </c>
+      <c r="B1">
         <v>2019</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2">
+      <c r="C1" t="str">
+        <v/>
+      </c>
+      <c r="D1">
         <v>2020</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2">
+      <c r="E1" t="str">
+        <v/>
+      </c>
+      <c r="F1">
         <v>2021</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2">
+      <c r="G1" t="str">
+        <v/>
+      </c>
+      <c r="H1">
         <v>2022</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="I1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v>г/г %</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>г/г (%)</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v>г/г  (%)</v>
+      </c>
+      <c r="H2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I2" t="str">
+        <v>г/г  (%)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Производительность труда тыс. тенге</v>
+      </c>
+      <c r="B3">
         <v>6869.8</v>
       </c>
       <c r="C3">
         <v>111.3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>7111.9</v>
       </c>
       <c r="E3">
         <v>103.5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>8423.4</v>
       </c>
       <c r="G3">
         <v>118.4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>9980.1</v>
       </c>
       <c r="I3">
         <v>118.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Производство товаров</v>
+      </c>
+      <c r="B4">
         <v>8720</v>
       </c>
       <c r="C4">
         <v>113</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>9101.4</v>
       </c>
       <c r="E4">
         <v>104.4</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>11278</v>
       </c>
       <c r="G4">
         <v>123.9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>13916.6</v>
       </c>
       <c r="I4">
         <v>123.4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Сельское, лесное и рыбное хозяйство</v>
+      </c>
+      <c r="B5">
         <v>2466</v>
       </c>
       <c r="C5">
         <v>118.8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>3004.8</v>
       </c>
       <c r="E5">
         <v>121.8</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>3350.7</v>
       </c>
       <c r="G5">
         <v>111.5</v>
       </c>
-      <c r="H5" s="1">
-        <v>4499.8999999999996</v>
+      <c r="H5">
+        <v>4499.9</v>
       </c>
       <c r="I5">
-        <v>134.30000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>17494.400000000001</v>
+        <v>134.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Промышленность</v>
+      </c>
+      <c r="B6">
+        <v>17494.4</v>
       </c>
       <c r="C6">
         <v>110.2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>17533.8</v>
       </c>
       <c r="E6">
         <v>100.2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>22625.4</v>
       </c>
       <c r="G6">
         <v>129</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>27139.8</v>
       </c>
       <c r="I6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>35837.199999999997</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v xml:space="preserve">Горнодобывающая промышленность </v>
+      </c>
+      <c r="B7">
+        <v>35837.2</v>
       </c>
       <c r="C7">
         <v>111.4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>31046</v>
       </c>
       <c r="E7">
         <v>86.6</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>42769</v>
       </c>
       <c r="G7">
-        <v>137.80000000000001</v>
-      </c>
-      <c r="H7" s="1">
+        <v>137.8</v>
+      </c>
+      <c r="H7">
         <v>54462.2</v>
       </c>
       <c r="I7">
         <v>127.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Обрабатывающая промышленность</v>
+      </c>
+      <c r="B8">
         <v>13660.8</v>
       </c>
       <c r="C8">
         <v>112.3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>15874.3</v>
       </c>
       <c r="E8">
         <v>116.2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>19508.2</v>
       </c>
       <c r="G8">
         <v>122.9</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>22495.1</v>
       </c>
       <c r="I8">
         <v>115.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Электроэнергия</v>
+      </c>
+      <c r="B9">
         <v>6531.3</v>
       </c>
       <c r="C9">
         <v>98.8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>7362.5</v>
       </c>
       <c r="E9">
         <v>112.7</v>
       </c>
-      <c r="F9" s="1">
-        <v>8726.2000000000007</v>
+      <c r="F9">
+        <v>8726.2</v>
       </c>
       <c r="G9">
         <v>118.5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>9620</v>
       </c>
       <c r="I9">
         <v>110.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="10">
+      <c r="A10" t="str">
+        <v xml:space="preserve">Водоснабжение </v>
+      </c>
+      <c r="B10">
         <v>2078.9</v>
       </c>
       <c r="C10">
         <v>107.1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>2068.5</v>
       </c>
       <c r="E10">
         <v>99.5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>2610.1</v>
       </c>
       <c r="G10">
         <v>126.2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>2730.8</v>
       </c>
       <c r="I10">
         <v>104.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Строительство</v>
+      </c>
+      <c r="B11">
         <v>5996.3</v>
       </c>
       <c r="C11">
         <v>114.8</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>6792.5</v>
       </c>
       <c r="E11">
         <v>113.3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>7429.6</v>
       </c>
       <c r="G11">
         <v>109.4</v>
       </c>
-      <c r="H11" s="1">
-        <v>8302.7000000000007</v>
+      <c r="H11">
+        <v>8302.7</v>
       </c>
       <c r="I11">
         <v>111.8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Производство услуг</v>
+      </c>
+      <c r="B12">
         <v>5926.7</v>
       </c>
       <c r="C12">
         <v>110.6</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>6093.5</v>
       </c>
       <c r="E12">
         <v>102.8</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>6969.9</v>
       </c>
       <c r="G12">
         <v>114.4</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>8063.4</v>
       </c>
       <c r="I12">
         <v>115.7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Оптовая и розничная торговля</v>
+      </c>
+      <c r="B13">
         <v>8237.6</v>
       </c>
       <c r="C13">
         <v>111</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>8559.6</v>
       </c>
       <c r="E13">
         <v>103.9</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>9715.5</v>
       </c>
       <c r="G13">
         <v>113.5</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>11376</v>
       </c>
       <c r="I13">
         <v>117.1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Транспорт и складирование</v>
+      </c>
+      <c r="B14">
         <v>8762.4</v>
       </c>
       <c r="C14">
         <v>108.1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>7813.1</v>
       </c>
       <c r="E14">
         <v>89.2</v>
       </c>
-      <c r="F14" s="1">
-        <v>9382.7000000000007</v>
+      <c r="F14">
+        <v>9382.7</v>
       </c>
       <c r="G14">
         <v>120.1</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>9889.6</v>
       </c>
       <c r="I14">
         <v>105.4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Предоставление услуг по проживанию и питанию</v>
+      </c>
+      <c r="B15">
         <v>4028.7</v>
       </c>
       <c r="C15">
         <v>107.4</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>3731.9</v>
       </c>
       <c r="E15">
         <v>92.6</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>4257.5</v>
       </c>
       <c r="G15">
         <v>114.1</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>4501</v>
       </c>
       <c r="I15">
         <v>105.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>8343.7000000000007</v>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Информация и связь</v>
+      </c>
+      <c r="B16">
+        <v>8343.7</v>
       </c>
       <c r="C16">
         <v>117.5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>10462.6</v>
       </c>
       <c r="E16">
         <v>125.4</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>12074.9</v>
       </c>
       <c r="G16">
         <v>115.4</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>13454.7</v>
       </c>
       <c r="I16">
         <v>111.4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Финансовая и страховая деятельность</v>
+      </c>
+      <c r="B17">
         <v>11726.2</v>
       </c>
       <c r="C17">
         <v>103.3</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>12573.7</v>
       </c>
       <c r="E17">
         <v>107.2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>13186.5</v>
       </c>
       <c r="G17">
         <v>104.9</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>16306</v>
       </c>
       <c r="I17">
         <v>123.7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1">
-        <v>9207.2000000000007</v>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Операции с недвижимым имуществом</v>
+      </c>
+      <c r="B18">
+        <v>9207.2</v>
       </c>
       <c r="C18">
         <v>111.3</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>7120.2</v>
       </c>
       <c r="E18">
         <v>77.3</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>7935.3</v>
       </c>
       <c r="G18">
         <v>111.4</v>
       </c>
-      <c r="H18" s="1">
-        <v>8824.2999999999993</v>
+      <c r="H18">
+        <v>8824.3</v>
       </c>
       <c r="I18">
         <v>111.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Профессиональная, научная и техническая деятельность</v>
+      </c>
+      <c r="B19">
         <v>11946.7</v>
       </c>
       <c r="C19">
         <v>108.4</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>11466.4</v>
       </c>
       <c r="E19">
         <v>96</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>12561.6</v>
       </c>
       <c r="G19">
         <v>109.6</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>13436.7</v>
       </c>
       <c r="I19">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Деятельность в области административного и вспомогательного обслуживания</v>
+      </c>
+      <c r="B20">
         <v>5475.4</v>
       </c>
       <c r="C20">
         <v>115.1</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>5638.6</v>
       </c>
       <c r="E20">
         <v>103</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>6059</v>
       </c>
       <c r="G20">
         <v>107.5</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>7786.1</v>
       </c>
       <c r="I20">
         <v>128.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2373.1999999999998</v>
+    <row r="21">
+      <c r="A21" t="str">
+        <v xml:space="preserve">Государственное управление и оборона; </v>
+      </c>
+      <c r="B21">
+        <v>2373.2</v>
       </c>
       <c r="C21">
         <v>127.2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>2744.5</v>
       </c>
       <c r="E21">
         <v>115.6</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>3166.9</v>
       </c>
       <c r="G21">
         <v>115.4</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>3856.4</v>
       </c>
       <c r="I21">
         <v>121.8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Образование</v>
+      </c>
+      <c r="B22">
         <v>1677</v>
       </c>
       <c r="C22">
         <v>110.9</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>2319</v>
       </c>
       <c r="E22">
-        <v>138.30000000000001</v>
-      </c>
-      <c r="F22" s="1">
+        <v>138.3</v>
+      </c>
+      <c r="F22">
         <v>2898</v>
       </c>
       <c r="G22">
         <v>125</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>3712.6</v>
       </c>
       <c r="I22">
         <v>128.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="23">
+      <c r="A23" t="str">
+        <v xml:space="preserve">Здравоохранение </v>
+      </c>
+      <c r="B23">
         <v>2638.4</v>
       </c>
       <c r="C23">
         <v>112.2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>3522</v>
       </c>
       <c r="E23">
         <v>133.5</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>4677</v>
       </c>
       <c r="G23">
-        <v>132.80000000000001</v>
-      </c>
-      <c r="H23" s="1">
+        <v>132.8</v>
+      </c>
+      <c r="H23">
         <v>5337.9</v>
       </c>
       <c r="I23">
         <v>114.1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Искусство, развлечения и отдых</v>
+      </c>
+      <c r="B24">
         <v>3583.5</v>
       </c>
       <c r="C24">
         <v>115.9</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>4620.7</v>
       </c>
       <c r="E24">
         <v>128.9</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>5428.4</v>
       </c>
       <c r="G24">
         <v>117.5</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>6482.1</v>
       </c>
       <c r="I24">
         <v>119.4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Предоставление прочих видов услуг</v>
+      </c>
+      <c r="B25">
         <v>6944.2</v>
       </c>
       <c r="C25">
         <v>98.7</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>5817.4</v>
       </c>
       <c r="E25">
         <v>83.8</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>5793</v>
       </c>
       <c r="G25">
         <v>99.6</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <v>6858.5</v>
       </c>
       <c r="I25">
@@ -1142,13 +1128,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:I25"/>
+  </ignoredErrors>
 </worksheet>
 </file>